--- a/output_20_racks.xlsx
+++ b/output_20_racks.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,119 +423,2425 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.145201197586727</v>
+        <v>1.023487795575896</v>
       </c>
       <c r="B1" t="n">
-        <v>3.525911030000102</v>
+        <v>2.29913530440268</v>
       </c>
       <c r="C1" t="n">
-        <v>18.80004925559751</v>
+        <v>6.468367808631402</v>
       </c>
       <c r="D1" t="n">
-        <v>14.0539692015645</v>
+        <v>18.11382789190627</v>
       </c>
       <c r="E1" t="n">
-        <v>16.11536180242145</v>
+        <v>9.107385901174148</v>
       </c>
       <c r="F1" t="n">
-        <v>9.520017961690792</v>
+        <v>9.822517456870901</v>
       </c>
       <c r="G1" t="n">
-        <v>1.145201197586727</v>
+        <v>5.878701771826123</v>
       </c>
       <c r="H1" t="n">
-        <v>3.525911030000102</v>
+        <v>1.023487795575896</v>
       </c>
       <c r="I1" t="n">
-        <v>0.7635430894473553</v>
+        <v>2.29913530440268</v>
       </c>
       <c r="J1" t="n">
-        <v>20</v>
+        <v>11.02781430942063</v>
       </c>
       <c r="K1" t="n">
         <v>20.40816326530612</v>
       </c>
       <c r="L1" t="n">
-        <v>18.41312531791227</v>
+        <v>20</v>
+      </c>
+      <c r="M1" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N1" t="n">
+        <v>11.0935701007993</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.145201197586727</v>
+        <v>1.023487795575896</v>
       </c>
       <c r="B2" t="n">
-        <v>3.525911030000102</v>
+        <v>2.29913530440268</v>
       </c>
       <c r="C2" t="n">
-        <v>18.80004925559751</v>
+        <v>6.468367808631402</v>
       </c>
       <c r="D2" t="n">
-        <v>14.0539692015645</v>
+        <v>18.11382789190627</v>
       </c>
       <c r="E2" t="n">
-        <v>16.11536180242145</v>
+        <v>9.107385901174148</v>
       </c>
       <c r="F2" t="n">
-        <v>9.520017961690792</v>
+        <v>9.822517456870901</v>
       </c>
       <c r="G2" t="n">
-        <v>1.145201197586727</v>
+        <v>5.878701771826123</v>
       </c>
       <c r="H2" t="n">
-        <v>3.525911030000102</v>
+        <v>1.023487795575896</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7635430894473553</v>
+        <v>2.29913530440268</v>
       </c>
       <c r="J2" t="n">
-        <v>20</v>
+        <v>11.02781430942063</v>
       </c>
       <c r="K2" t="n">
         <v>20.40816326530612</v>
       </c>
       <c r="L2" t="n">
-        <v>18.41312531791227</v>
+        <v>20</v>
+      </c>
+      <c r="M2" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N2" t="n">
+        <v>11.0935701007993</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.167379915698337</v>
+        <v>1.029460158591408</v>
       </c>
       <c r="B3" t="n">
-        <v>4.323678907252511</v>
+        <v>2.663629146589654</v>
       </c>
       <c r="C3" t="n">
-        <v>16.98527336886265</v>
+        <v>7.082829278653374</v>
       </c>
       <c r="D3" t="n">
-        <v>12.44065636626805</v>
+        <v>18.12493925836873</v>
       </c>
       <c r="E3" t="n">
-        <v>14.60734347239883</v>
+        <v>9.900082679361864</v>
       </c>
       <c r="F3" t="n">
-        <v>8.154678391506964</v>
+        <v>11.02586202914416</v>
       </c>
       <c r="G3" t="n">
-        <v>1.167379915698337</v>
+        <v>6.350583479469787</v>
       </c>
       <c r="H3" t="n">
-        <v>4.323678907252511</v>
+        <v>1.029460158591408</v>
       </c>
       <c r="I3" t="n">
-        <v>1.232890524604291</v>
+        <v>2.663629146589654</v>
       </c>
       <c r="J3" t="n">
-        <v>18.18181818181818</v>
+        <v>11.71123652498501</v>
       </c>
       <c r="K3" t="n">
-        <v>18.18181818181818</v>
+        <v>20.40816326530612</v>
       </c>
       <c r="L3" t="n">
-        <v>16.43199484744183</v>
+        <v>20</v>
+      </c>
+      <c r="M3" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N3" t="n">
+        <v>12.08565337331571</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1.023487795575896</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2.29913530440268</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6.468367808631402</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.11382789190627</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9.107385901174148</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9.822517456870901</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5.878701771826123</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.023487795575896</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.29913530440268</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11.02781430942063</v>
+      </c>
+      <c r="K4" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="L4" t="n">
+        <v>20</v>
+      </c>
+      <c r="M4" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N4" t="n">
+        <v>11.0935701007993</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1.029460158591408</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.663629146589654</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7.082829278653374</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.12493925836873</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9.900082679361864</v>
+      </c>
+      <c r="F5" t="n">
+        <v>11.02586202914416</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6.350583479469787</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.029460158591408</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.663629146589654</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11.71123652498501</v>
+      </c>
+      <c r="K5" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="L5" t="n">
+        <v>20</v>
+      </c>
+      <c r="M5" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N5" t="n">
+        <v>12.08565337331571</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1.027726274509804</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2.521533498411457</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7.14383998377325</v>
+      </c>
+      <c r="D6" t="n">
+        <v>18.79511607095397</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9.881254187474878</v>
+      </c>
+      <c r="F6" t="n">
+        <v>11.32590327451176</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6.783773360857422</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.027726274509804</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.521533498411457</v>
+      </c>
+      <c r="J6" t="n">
+        <v>12.13576829116391</v>
+      </c>
+      <c r="K6" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="L6" t="n">
+        <v>20</v>
+      </c>
+      <c r="M6" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N6" t="n">
+        <v>12.338115456234</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1.023487795575896</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2.29913530440268</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6.468367808631402</v>
+      </c>
+      <c r="D7" t="n">
+        <v>18.11382789190627</v>
+      </c>
+      <c r="E7" t="n">
+        <v>9.107385901174148</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9.822517456870901</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5.878701771826123</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.023487795575896</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.29913530440268</v>
+      </c>
+      <c r="J7" t="n">
+        <v>11.02781430942063</v>
+      </c>
+      <c r="K7" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="L7" t="n">
+        <v>20</v>
+      </c>
+      <c r="M7" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11.0935701007993</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1.029460158591408</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2.663629146589654</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7.082829278653374</v>
+      </c>
+      <c r="D8" t="n">
+        <v>18.12493925836873</v>
+      </c>
+      <c r="E8" t="n">
+        <v>9.900082679361864</v>
+      </c>
+      <c r="F8" t="n">
+        <v>11.02586202914416</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6.350583479469787</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.029460158591408</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.663629146589654</v>
+      </c>
+      <c r="J8" t="n">
+        <v>11.71123652498501</v>
+      </c>
+      <c r="K8" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="L8" t="n">
+        <v>20</v>
+      </c>
+      <c r="M8" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N8" t="n">
+        <v>12.08565337331571</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1.027726274509804</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2.521533498411457</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7.14383998377325</v>
+      </c>
+      <c r="D9" t="n">
+        <v>18.79511607095397</v>
+      </c>
+      <c r="E9" t="n">
+        <v>9.881254187474878</v>
+      </c>
+      <c r="F9" t="n">
+        <v>11.32590327451176</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6.783773360857422</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.027726274509804</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.521533498411457</v>
+      </c>
+      <c r="J9" t="n">
+        <v>12.13576829116391</v>
+      </c>
+      <c r="K9" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="L9" t="n">
+        <v>20</v>
+      </c>
+      <c r="M9" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N9" t="n">
+        <v>12.338115456234</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1.019101936758893</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2.354326939937782</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.669423258814888</v>
+      </c>
+      <c r="D10" t="n">
+        <v>17.92508533579294</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9.083635317415009</v>
+      </c>
+      <c r="F10" t="n">
+        <v>10.38799809219701</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5.691169706631585</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.019101936758893</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.354326939937782</v>
+      </c>
+      <c r="J10" t="n">
+        <v>11.4428945449015</v>
+      </c>
+      <c r="K10" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="L10" t="n">
+        <v>20</v>
+      </c>
+      <c r="M10" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11.1987047769156</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1.023487795575896</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.29913530440268</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6.468367808631402</v>
+      </c>
+      <c r="D11" t="n">
+        <v>18.11382789190627</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9.107385901174148</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9.822517456870901</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5.878701771826123</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.023487795575896</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.29913530440268</v>
+      </c>
+      <c r="J11" t="n">
+        <v>11.02781430942063</v>
+      </c>
+      <c r="K11" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="L11" t="n">
+        <v>20</v>
+      </c>
+      <c r="M11" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11.0935701007993</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1.029460158591408</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2.663629146589654</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7.082829278653374</v>
+      </c>
+      <c r="D12" t="n">
+        <v>18.12493925836873</v>
+      </c>
+      <c r="E12" t="n">
+        <v>9.900082679361864</v>
+      </c>
+      <c r="F12" t="n">
+        <v>11.02586202914416</v>
+      </c>
+      <c r="G12" t="n">
+        <v>6.350583479469787</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.029460158591408</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.663629146589654</v>
+      </c>
+      <c r="J12" t="n">
+        <v>11.71123652498501</v>
+      </c>
+      <c r="K12" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="L12" t="n">
+        <v>20</v>
+      </c>
+      <c r="M12" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N12" t="n">
+        <v>12.08565337331571</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1.027726274509804</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2.521533498411457</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7.14383998377325</v>
+      </c>
+      <c r="D13" t="n">
+        <v>18.79511607095397</v>
+      </c>
+      <c r="E13" t="n">
+        <v>9.881254187474878</v>
+      </c>
+      <c r="F13" t="n">
+        <v>11.32590327451176</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6.783773360857422</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.027726274509804</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.521533498411457</v>
+      </c>
+      <c r="J13" t="n">
+        <v>12.13576829116391</v>
+      </c>
+      <c r="K13" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="L13" t="n">
+        <v>20</v>
+      </c>
+      <c r="M13" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N13" t="n">
+        <v>12.338115456234</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1.019101936758893</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2.354326939937782</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6.669423258814888</v>
+      </c>
+      <c r="D14" t="n">
+        <v>17.92508533579294</v>
+      </c>
+      <c r="E14" t="n">
+        <v>9.083635317415009</v>
+      </c>
+      <c r="F14" t="n">
+        <v>10.38799809219701</v>
+      </c>
+      <c r="G14" t="n">
+        <v>5.691169706631585</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.019101936758893</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.354326939937782</v>
+      </c>
+      <c r="J14" t="n">
+        <v>11.4428945449015</v>
+      </c>
+      <c r="K14" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="L14" t="n">
+        <v>20</v>
+      </c>
+      <c r="M14" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N14" t="n">
+        <v>11.1987047769156</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1.063193333333333</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2.419124103956835</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6.993347685403828</v>
+      </c>
+      <c r="D15" t="n">
+        <v>18.39136767962492</v>
+      </c>
+      <c r="E15" t="n">
+        <v>9.744784292649113</v>
+      </c>
+      <c r="F15" t="n">
+        <v>10.86030849554317</v>
+      </c>
+      <c r="G15" t="n">
+        <v>6.409394983356293</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.063193333333333</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.419124103956835</v>
+      </c>
+      <c r="J15" t="n">
+        <v>11.93912165087453</v>
+      </c>
+      <c r="K15" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="L15" t="n">
+        <v>20</v>
+      </c>
+      <c r="M15" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N15" t="n">
+        <v>12.08945713583387</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1.023487795575896</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2.29913530440268</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6.468367808631402</v>
+      </c>
+      <c r="D16" t="n">
+        <v>18.11382789190627</v>
+      </c>
+      <c r="E16" t="n">
+        <v>9.107385901174148</v>
+      </c>
+      <c r="F16" t="n">
+        <v>9.822517456870901</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5.878701771826123</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.023487795575896</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.29913530440268</v>
+      </c>
+      <c r="J16" t="n">
+        <v>11.02781430942063</v>
+      </c>
+      <c r="K16" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="L16" t="n">
+        <v>20</v>
+      </c>
+      <c r="M16" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N16" t="n">
+        <v>11.0935701007993</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1.029460158591408</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2.663629146589654</v>
+      </c>
+      <c r="C17" t="n">
+        <v>7.082829278653374</v>
+      </c>
+      <c r="D17" t="n">
+        <v>18.12493925836873</v>
+      </c>
+      <c r="E17" t="n">
+        <v>9.900082679361864</v>
+      </c>
+      <c r="F17" t="n">
+        <v>11.02586202914416</v>
+      </c>
+      <c r="G17" t="n">
+        <v>6.350583479469787</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.029460158591408</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.663629146589654</v>
+      </c>
+      <c r="J17" t="n">
+        <v>11.71123652498501</v>
+      </c>
+      <c r="K17" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="L17" t="n">
+        <v>20</v>
+      </c>
+      <c r="M17" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N17" t="n">
+        <v>12.08565337331571</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1.027726274509804</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2.521533498411457</v>
+      </c>
+      <c r="C18" t="n">
+        <v>7.14383998377325</v>
+      </c>
+      <c r="D18" t="n">
+        <v>18.79511607095397</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9.881254187474878</v>
+      </c>
+      <c r="F18" t="n">
+        <v>11.32590327451176</v>
+      </c>
+      <c r="G18" t="n">
+        <v>6.783773360857422</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.027726274509804</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.521533498411457</v>
+      </c>
+      <c r="J18" t="n">
+        <v>12.13576829116391</v>
+      </c>
+      <c r="K18" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="L18" t="n">
+        <v>20</v>
+      </c>
+      <c r="M18" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N18" t="n">
+        <v>12.338115456234</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1.019101936758893</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2.354326939937782</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6.669423258814888</v>
+      </c>
+      <c r="D19" t="n">
+        <v>17.92508533579294</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9.083635317415009</v>
+      </c>
+      <c r="F19" t="n">
+        <v>10.38799809219701</v>
+      </c>
+      <c r="G19" t="n">
+        <v>5.691169706631585</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.019101936758893</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.354326939937782</v>
+      </c>
+      <c r="J19" t="n">
+        <v>11.4428945449015</v>
+      </c>
+      <c r="K19" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="L19" t="n">
+        <v>20</v>
+      </c>
+      <c r="M19" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N19" t="n">
+        <v>11.1987047769156</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1.063193333333333</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2.419124103956835</v>
+      </c>
+      <c r="C20" t="n">
+        <v>6.993347685403828</v>
+      </c>
+      <c r="D20" t="n">
+        <v>18.39136767962492</v>
+      </c>
+      <c r="E20" t="n">
+        <v>9.744784292649113</v>
+      </c>
+      <c r="F20" t="n">
+        <v>10.86030849554317</v>
+      </c>
+      <c r="G20" t="n">
+        <v>6.409394983356293</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.063193333333333</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.419124103956835</v>
+      </c>
+      <c r="J20" t="n">
+        <v>11.93912165087453</v>
+      </c>
+      <c r="K20" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="L20" t="n">
+        <v>20</v>
+      </c>
+      <c r="M20" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N20" t="n">
+        <v>12.08945713583387</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1.068147965367965</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2.409366279687543</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5.819238905718447</v>
+      </c>
+      <c r="D21" t="n">
+        <v>16.10409045057769</v>
+      </c>
+      <c r="E21" t="n">
+        <v>8.013610205586298</v>
+      </c>
+      <c r="F21" t="n">
+        <v>9.030890914916775</v>
+      </c>
+      <c r="G21" t="n">
+        <v>5.38598930143589</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.068147965367965</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.409366279687543</v>
+      </c>
+      <c r="J21" t="n">
+        <v>10.25007137780309</v>
+      </c>
+      <c r="K21" t="n">
+        <v>18.51851851851852</v>
+      </c>
+      <c r="L21" t="n">
+        <v>18.18181818181818</v>
+      </c>
+      <c r="M21" t="n">
+        <v>18.18181818181818</v>
+      </c>
+      <c r="N21" t="n">
+        <v>10.31794652260352</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1.023487795575896</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2.29913530440268</v>
+      </c>
+      <c r="C22" t="n">
+        <v>6.468367808631402</v>
+      </c>
+      <c r="D22" t="n">
+        <v>18.11382789190627</v>
+      </c>
+      <c r="E22" t="n">
+        <v>9.107385901174148</v>
+      </c>
+      <c r="F22" t="n">
+        <v>9.822517456870901</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5.878701771826123</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.023487795575896</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.29913530440268</v>
+      </c>
+      <c r="J22" t="n">
+        <v>11.02781430942063</v>
+      </c>
+      <c r="K22" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="L22" t="n">
+        <v>20</v>
+      </c>
+      <c r="M22" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N22" t="n">
+        <v>11.0935701007993</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1.029460158591408</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2.663629146589654</v>
+      </c>
+      <c r="C23" t="n">
+        <v>7.082829278653374</v>
+      </c>
+      <c r="D23" t="n">
+        <v>18.12493925836873</v>
+      </c>
+      <c r="E23" t="n">
+        <v>9.900082679361864</v>
+      </c>
+      <c r="F23" t="n">
+        <v>11.02586202914416</v>
+      </c>
+      <c r="G23" t="n">
+        <v>6.350583479469787</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.029460158591408</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.663629146589654</v>
+      </c>
+      <c r="J23" t="n">
+        <v>11.71123652498501</v>
+      </c>
+      <c r="K23" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="L23" t="n">
+        <v>20</v>
+      </c>
+      <c r="M23" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N23" t="n">
+        <v>12.08565337331571</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1.027726274509804</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2.521533498411457</v>
+      </c>
+      <c r="C24" t="n">
+        <v>7.14383998377325</v>
+      </c>
+      <c r="D24" t="n">
+        <v>18.79511607095397</v>
+      </c>
+      <c r="E24" t="n">
+        <v>9.881254187474878</v>
+      </c>
+      <c r="F24" t="n">
+        <v>11.32590327451176</v>
+      </c>
+      <c r="G24" t="n">
+        <v>6.783773360857422</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.027726274509804</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.521533498411457</v>
+      </c>
+      <c r="J24" t="n">
+        <v>12.13576829116391</v>
+      </c>
+      <c r="K24" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="L24" t="n">
+        <v>20</v>
+      </c>
+      <c r="M24" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N24" t="n">
+        <v>12.338115456234</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1.019101936758893</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2.354326939937782</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6.669423258814888</v>
+      </c>
+      <c r="D25" t="n">
+        <v>17.92508533579294</v>
+      </c>
+      <c r="E25" t="n">
+        <v>9.083635317415009</v>
+      </c>
+      <c r="F25" t="n">
+        <v>10.38799809219701</v>
+      </c>
+      <c r="G25" t="n">
+        <v>5.691169706631585</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.019101936758893</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.354326939937782</v>
+      </c>
+      <c r="J25" t="n">
+        <v>11.4428945449015</v>
+      </c>
+      <c r="K25" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="L25" t="n">
+        <v>20</v>
+      </c>
+      <c r="M25" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N25" t="n">
+        <v>11.1987047769156</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1.063193333333333</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2.419124103956835</v>
+      </c>
+      <c r="C26" t="n">
+        <v>6.993347685403828</v>
+      </c>
+      <c r="D26" t="n">
+        <v>18.39136767962492</v>
+      </c>
+      <c r="E26" t="n">
+        <v>9.744784292649113</v>
+      </c>
+      <c r="F26" t="n">
+        <v>10.86030849554317</v>
+      </c>
+      <c r="G26" t="n">
+        <v>6.409394983356293</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.063193333333333</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.419124103956835</v>
+      </c>
+      <c r="J26" t="n">
+        <v>11.93912165087453</v>
+      </c>
+      <c r="K26" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="L26" t="n">
+        <v>20</v>
+      </c>
+      <c r="M26" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N26" t="n">
+        <v>12.08945713583387</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1.068147965367965</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2.409366279687543</v>
+      </c>
+      <c r="C27" t="n">
+        <v>5.819238905718447</v>
+      </c>
+      <c r="D27" t="n">
+        <v>16.10409045057769</v>
+      </c>
+      <c r="E27" t="n">
+        <v>8.013610205586298</v>
+      </c>
+      <c r="F27" t="n">
+        <v>9.030890914916775</v>
+      </c>
+      <c r="G27" t="n">
+        <v>5.38598930143589</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.068147965367965</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.409366279687543</v>
+      </c>
+      <c r="J27" t="n">
+        <v>10.25007137780309</v>
+      </c>
+      <c r="K27" t="n">
+        <v>18.51851851851852</v>
+      </c>
+      <c r="L27" t="n">
+        <v>18.18181818181818</v>
+      </c>
+      <c r="M27" t="n">
+        <v>18.18181818181818</v>
+      </c>
+      <c r="N27" t="n">
+        <v>10.31794652260352</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1.11699163372859</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2.588635462736643</v>
+      </c>
+      <c r="C28" t="n">
+        <v>7.553333608683054</v>
+      </c>
+      <c r="D28" t="n">
+        <v>16.53679664490139</v>
+      </c>
+      <c r="E28" t="n">
+        <v>8.933191662590716</v>
+      </c>
+      <c r="F28" t="n">
+        <v>10.4291855984789</v>
+      </c>
+      <c r="G28" t="n">
+        <v>5.789749855747776</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.11699163372859</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.588635462736643</v>
+      </c>
+      <c r="J28" t="n">
+        <v>11.84891041739768</v>
+      </c>
+      <c r="K28" t="n">
+        <v>18.51851851851852</v>
+      </c>
+      <c r="L28" t="n">
+        <v>18.18181818181818</v>
+      </c>
+      <c r="M28" t="n">
+        <v>18.18181818181818</v>
+      </c>
+      <c r="N28" t="n">
+        <v>11.52163083731305</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1.023487795575896</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2.29913530440268</v>
+      </c>
+      <c r="C29" t="n">
+        <v>6.468367808631402</v>
+      </c>
+      <c r="D29" t="n">
+        <v>18.11382789190627</v>
+      </c>
+      <c r="E29" t="n">
+        <v>9.107385901174148</v>
+      </c>
+      <c r="F29" t="n">
+        <v>9.822517456870901</v>
+      </c>
+      <c r="G29" t="n">
+        <v>5.878701771826123</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1.023487795575896</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.29913530440268</v>
+      </c>
+      <c r="J29" t="n">
+        <v>11.02781430942063</v>
+      </c>
+      <c r="K29" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="L29" t="n">
+        <v>20</v>
+      </c>
+      <c r="M29" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N29" t="n">
+        <v>11.0935701007993</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1.029460158591408</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2.663629146589654</v>
+      </c>
+      <c r="C30" t="n">
+        <v>7.082829278653374</v>
+      </c>
+      <c r="D30" t="n">
+        <v>18.12493925836873</v>
+      </c>
+      <c r="E30" t="n">
+        <v>9.900082679361864</v>
+      </c>
+      <c r="F30" t="n">
+        <v>11.02586202914416</v>
+      </c>
+      <c r="G30" t="n">
+        <v>6.350583479469787</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.029460158591408</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2.663629146589654</v>
+      </c>
+      <c r="J30" t="n">
+        <v>11.71123652498501</v>
+      </c>
+      <c r="K30" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="L30" t="n">
+        <v>20</v>
+      </c>
+      <c r="M30" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N30" t="n">
+        <v>12.08565337331571</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1.027726274509804</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2.521533498411457</v>
+      </c>
+      <c r="C31" t="n">
+        <v>7.14383998377325</v>
+      </c>
+      <c r="D31" t="n">
+        <v>18.79511607095397</v>
+      </c>
+      <c r="E31" t="n">
+        <v>9.881254187474878</v>
+      </c>
+      <c r="F31" t="n">
+        <v>11.32590327451176</v>
+      </c>
+      <c r="G31" t="n">
+        <v>6.783773360857422</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1.027726274509804</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2.521533498411457</v>
+      </c>
+      <c r="J31" t="n">
+        <v>12.13576829116391</v>
+      </c>
+      <c r="K31" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="L31" t="n">
+        <v>20</v>
+      </c>
+      <c r="M31" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N31" t="n">
+        <v>12.338115456234</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1.019101936758893</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2.354326939937782</v>
+      </c>
+      <c r="C32" t="n">
+        <v>6.669423258814888</v>
+      </c>
+      <c r="D32" t="n">
+        <v>17.92508533579294</v>
+      </c>
+      <c r="E32" t="n">
+        <v>9.083635317415009</v>
+      </c>
+      <c r="F32" t="n">
+        <v>10.38799809219701</v>
+      </c>
+      <c r="G32" t="n">
+        <v>5.691169706631585</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1.019101936758893</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2.354326939937782</v>
+      </c>
+      <c r="J32" t="n">
+        <v>11.4428945449015</v>
+      </c>
+      <c r="K32" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="L32" t="n">
+        <v>20</v>
+      </c>
+      <c r="M32" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N32" t="n">
+        <v>11.1987047769156</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1.063193333333333</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2.419124103956835</v>
+      </c>
+      <c r="C33" t="n">
+        <v>6.993347685403828</v>
+      </c>
+      <c r="D33" t="n">
+        <v>18.39136767962492</v>
+      </c>
+      <c r="E33" t="n">
+        <v>9.744784292649113</v>
+      </c>
+      <c r="F33" t="n">
+        <v>10.86030849554317</v>
+      </c>
+      <c r="G33" t="n">
+        <v>6.409394983356293</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1.063193333333333</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2.419124103956835</v>
+      </c>
+      <c r="J33" t="n">
+        <v>11.93912165087453</v>
+      </c>
+      <c r="K33" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="L33" t="n">
+        <v>20</v>
+      </c>
+      <c r="M33" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N33" t="n">
+        <v>12.08945713583387</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1.068147965367965</v>
+      </c>
+      <c r="B34" t="n">
+        <v>2.409366279687543</v>
+      </c>
+      <c r="C34" t="n">
+        <v>5.819238905718447</v>
+      </c>
+      <c r="D34" t="n">
+        <v>16.10409045057769</v>
+      </c>
+      <c r="E34" t="n">
+        <v>8.013610205586298</v>
+      </c>
+      <c r="F34" t="n">
+        <v>9.030890914916775</v>
+      </c>
+      <c r="G34" t="n">
+        <v>5.38598930143589</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1.068147965367965</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2.409366279687543</v>
+      </c>
+      <c r="J34" t="n">
+        <v>10.25007137780309</v>
+      </c>
+      <c r="K34" t="n">
+        <v>18.51851851851852</v>
+      </c>
+      <c r="L34" t="n">
+        <v>18.18181818181818</v>
+      </c>
+      <c r="M34" t="n">
+        <v>18.18181818181818</v>
+      </c>
+      <c r="N34" t="n">
+        <v>10.31794652260352</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1.11699163372859</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2.588635462736643</v>
+      </c>
+      <c r="C35" t="n">
+        <v>7.553333608683054</v>
+      </c>
+      <c r="D35" t="n">
+        <v>16.53679664490139</v>
+      </c>
+      <c r="E35" t="n">
+        <v>8.933191662590716</v>
+      </c>
+      <c r="F35" t="n">
+        <v>10.4291855984789</v>
+      </c>
+      <c r="G35" t="n">
+        <v>5.789749855747776</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1.11699163372859</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2.588635462736643</v>
+      </c>
+      <c r="J35" t="n">
+        <v>11.84891041739768</v>
+      </c>
+      <c r="K35" t="n">
+        <v>18.51851851851852</v>
+      </c>
+      <c r="L35" t="n">
+        <v>18.18181818181818</v>
+      </c>
+      <c r="M35" t="n">
+        <v>18.18181818181818</v>
+      </c>
+      <c r="N35" t="n">
+        <v>11.52163083731305</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1.079017942028985</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2.767581515317356</v>
+      </c>
+      <c r="C36" t="n">
+        <v>7.359805005819742</v>
+      </c>
+      <c r="D36" t="n">
+        <v>16.18874043780003</v>
+      </c>
+      <c r="E36" t="n">
+        <v>9.717072593667558</v>
+      </c>
+      <c r="F36" t="n">
+        <v>11.07329005536028</v>
+      </c>
+      <c r="G36" t="n">
+        <v>6.655281128127018</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1.079017942028985</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2.767581515317356</v>
+      </c>
+      <c r="J36" t="n">
+        <v>12.2105766395475</v>
+      </c>
+      <c r="K36" t="n">
+        <v>18.51851851851852</v>
+      </c>
+      <c r="L36" t="n">
+        <v>18.18181818181818</v>
+      </c>
+      <c r="M36" t="n">
+        <v>18.18181818181818</v>
+      </c>
+      <c r="N36" t="n">
+        <v>12.56307654569364</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1.023487795575896</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2.29913530440268</v>
+      </c>
+      <c r="C37" t="n">
+        <v>6.468367808631402</v>
+      </c>
+      <c r="D37" t="n">
+        <v>18.11382789190627</v>
+      </c>
+      <c r="E37" t="n">
+        <v>9.107385901174148</v>
+      </c>
+      <c r="F37" t="n">
+        <v>9.822517456870901</v>
+      </c>
+      <c r="G37" t="n">
+        <v>5.878701771826123</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1.023487795575896</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2.29913530440268</v>
+      </c>
+      <c r="J37" t="n">
+        <v>11.02781430942063</v>
+      </c>
+      <c r="K37" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="L37" t="n">
+        <v>20</v>
+      </c>
+      <c r="M37" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N37" t="n">
+        <v>11.0935701007993</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1.029460158591408</v>
+      </c>
+      <c r="B38" t="n">
+        <v>2.663629146589654</v>
+      </c>
+      <c r="C38" t="n">
+        <v>7.082829278653374</v>
+      </c>
+      <c r="D38" t="n">
+        <v>18.12493925836873</v>
+      </c>
+      <c r="E38" t="n">
+        <v>9.900082679361864</v>
+      </c>
+      <c r="F38" t="n">
+        <v>11.02586202914416</v>
+      </c>
+      <c r="G38" t="n">
+        <v>6.350583479469787</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1.029460158591408</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2.663629146589654</v>
+      </c>
+      <c r="J38" t="n">
+        <v>11.71123652498501</v>
+      </c>
+      <c r="K38" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="L38" t="n">
+        <v>20</v>
+      </c>
+      <c r="M38" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N38" t="n">
+        <v>12.08565337331571</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1.027726274509804</v>
+      </c>
+      <c r="B39" t="n">
+        <v>2.521533498411457</v>
+      </c>
+      <c r="C39" t="n">
+        <v>7.14383998377325</v>
+      </c>
+      <c r="D39" t="n">
+        <v>18.79511607095397</v>
+      </c>
+      <c r="E39" t="n">
+        <v>9.881254187474878</v>
+      </c>
+      <c r="F39" t="n">
+        <v>11.32590327451176</v>
+      </c>
+      <c r="G39" t="n">
+        <v>6.783773360857422</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1.027726274509804</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2.521533498411457</v>
+      </c>
+      <c r="J39" t="n">
+        <v>12.13576829116391</v>
+      </c>
+      <c r="K39" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="L39" t="n">
+        <v>20</v>
+      </c>
+      <c r="M39" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N39" t="n">
+        <v>12.338115456234</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1.019101936758893</v>
+      </c>
+      <c r="B40" t="n">
+        <v>2.354326939937782</v>
+      </c>
+      <c r="C40" t="n">
+        <v>6.669423258814888</v>
+      </c>
+      <c r="D40" t="n">
+        <v>17.92508533579294</v>
+      </c>
+      <c r="E40" t="n">
+        <v>9.083635317415009</v>
+      </c>
+      <c r="F40" t="n">
+        <v>10.38799809219701</v>
+      </c>
+      <c r="G40" t="n">
+        <v>5.691169706631585</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1.019101936758893</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2.354326939937782</v>
+      </c>
+      <c r="J40" t="n">
+        <v>11.4428945449015</v>
+      </c>
+      <c r="K40" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="L40" t="n">
+        <v>20</v>
+      </c>
+      <c r="M40" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N40" t="n">
+        <v>11.1987047769156</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1.063193333333333</v>
+      </c>
+      <c r="B41" t="n">
+        <v>2.419124103956835</v>
+      </c>
+      <c r="C41" t="n">
+        <v>6.993347685403828</v>
+      </c>
+      <c r="D41" t="n">
+        <v>18.39136767962492</v>
+      </c>
+      <c r="E41" t="n">
+        <v>9.744784292649113</v>
+      </c>
+      <c r="F41" t="n">
+        <v>10.86030849554317</v>
+      </c>
+      <c r="G41" t="n">
+        <v>6.409394983356293</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1.063193333333333</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2.419124103956835</v>
+      </c>
+      <c r="J41" t="n">
+        <v>11.93912165087453</v>
+      </c>
+      <c r="K41" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="L41" t="n">
+        <v>20</v>
+      </c>
+      <c r="M41" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N41" t="n">
+        <v>12.08945713583387</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1.068147965367965</v>
+      </c>
+      <c r="B42" t="n">
+        <v>2.409366279687543</v>
+      </c>
+      <c r="C42" t="n">
+        <v>5.819238905718447</v>
+      </c>
+      <c r="D42" t="n">
+        <v>16.10409045057769</v>
+      </c>
+      <c r="E42" t="n">
+        <v>8.013610205586298</v>
+      </c>
+      <c r="F42" t="n">
+        <v>9.030890914916775</v>
+      </c>
+      <c r="G42" t="n">
+        <v>5.38598930143589</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1.068147965367965</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2.409366279687543</v>
+      </c>
+      <c r="J42" t="n">
+        <v>10.25007137780309</v>
+      </c>
+      <c r="K42" t="n">
+        <v>18.51851851851852</v>
+      </c>
+      <c r="L42" t="n">
+        <v>18.18181818181818</v>
+      </c>
+      <c r="M42" t="n">
+        <v>18.18181818181818</v>
+      </c>
+      <c r="N42" t="n">
+        <v>10.31794652260352</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1.11699163372859</v>
+      </c>
+      <c r="B43" t="n">
+        <v>2.588635462736643</v>
+      </c>
+      <c r="C43" t="n">
+        <v>7.553333608683054</v>
+      </c>
+      <c r="D43" t="n">
+        <v>16.53679664490139</v>
+      </c>
+      <c r="E43" t="n">
+        <v>8.933191662590716</v>
+      </c>
+      <c r="F43" t="n">
+        <v>10.4291855984789</v>
+      </c>
+      <c r="G43" t="n">
+        <v>5.789749855747776</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1.11699163372859</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2.588635462736643</v>
+      </c>
+      <c r="J43" t="n">
+        <v>11.84891041739768</v>
+      </c>
+      <c r="K43" t="n">
+        <v>18.51851851851852</v>
+      </c>
+      <c r="L43" t="n">
+        <v>18.18181818181818</v>
+      </c>
+      <c r="M43" t="n">
+        <v>18.18181818181818</v>
+      </c>
+      <c r="N43" t="n">
+        <v>11.52163083731305</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1.079017942028985</v>
+      </c>
+      <c r="B44" t="n">
+        <v>2.767581515317356</v>
+      </c>
+      <c r="C44" t="n">
+        <v>7.359805005819742</v>
+      </c>
+      <c r="D44" t="n">
+        <v>16.18874043780003</v>
+      </c>
+      <c r="E44" t="n">
+        <v>9.717072593667558</v>
+      </c>
+      <c r="F44" t="n">
+        <v>11.07329005536028</v>
+      </c>
+      <c r="G44" t="n">
+        <v>6.655281128127018</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1.079017942028985</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2.767581515317356</v>
+      </c>
+      <c r="J44" t="n">
+        <v>12.2105766395475</v>
+      </c>
+      <c r="K44" t="n">
+        <v>18.51851851851852</v>
+      </c>
+      <c r="L44" t="n">
+        <v>18.18181818181818</v>
+      </c>
+      <c r="M44" t="n">
+        <v>18.18181818181818</v>
+      </c>
+      <c r="N44" t="n">
+        <v>12.56307654569364</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1.120129782913165</v>
+      </c>
+      <c r="B45" t="n">
+        <v>2.638774011860739</v>
+      </c>
+      <c r="C45" t="n">
+        <v>6.39143368523483</v>
+      </c>
+      <c r="D45" t="n">
+        <v>16.52280003714241</v>
+      </c>
+      <c r="E45" t="n">
+        <v>8.655053139393956</v>
+      </c>
+      <c r="F45" t="n">
+        <v>9.88773276725499</v>
+      </c>
+      <c r="G45" t="n">
+        <v>5.851635172093884</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1.120129782913165</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2.638774011860739</v>
+      </c>
+      <c r="J45" t="n">
+        <v>11.44591261300829</v>
+      </c>
+      <c r="K45" t="n">
+        <v>18.51851851851852</v>
+      </c>
+      <c r="L45" t="n">
+        <v>18.18181818181818</v>
+      </c>
+      <c r="M45" t="n">
+        <v>18.18181818181818</v>
+      </c>
+      <c r="N45" t="n">
+        <v>11.29146063131274</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1.023487795575896</v>
+      </c>
+      <c r="B46" t="n">
+        <v>2.29913530440268</v>
+      </c>
+      <c r="C46" t="n">
+        <v>6.468367808631402</v>
+      </c>
+      <c r="D46" t="n">
+        <v>18.11382789190627</v>
+      </c>
+      <c r="E46" t="n">
+        <v>9.107385901174148</v>
+      </c>
+      <c r="F46" t="n">
+        <v>9.822517456870901</v>
+      </c>
+      <c r="G46" t="n">
+        <v>5.878701771826123</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1.023487795575896</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2.29913530440268</v>
+      </c>
+      <c r="J46" t="n">
+        <v>11.02781430942063</v>
+      </c>
+      <c r="K46" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="L46" t="n">
+        <v>20</v>
+      </c>
+      <c r="M46" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N46" t="n">
+        <v>11.0935701007993</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1.029460158591408</v>
+      </c>
+      <c r="B47" t="n">
+        <v>2.663629146589654</v>
+      </c>
+      <c r="C47" t="n">
+        <v>7.082829278653374</v>
+      </c>
+      <c r="D47" t="n">
+        <v>18.12493925836873</v>
+      </c>
+      <c r="E47" t="n">
+        <v>9.900082679361864</v>
+      </c>
+      <c r="F47" t="n">
+        <v>11.02586202914416</v>
+      </c>
+      <c r="G47" t="n">
+        <v>6.350583479469787</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1.029460158591408</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2.663629146589654</v>
+      </c>
+      <c r="J47" t="n">
+        <v>11.71123652498501</v>
+      </c>
+      <c r="K47" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="L47" t="n">
+        <v>20</v>
+      </c>
+      <c r="M47" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N47" t="n">
+        <v>12.08565337331571</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1.027726274509804</v>
+      </c>
+      <c r="B48" t="n">
+        <v>2.521533498411457</v>
+      </c>
+      <c r="C48" t="n">
+        <v>7.14383998377325</v>
+      </c>
+      <c r="D48" t="n">
+        <v>18.79511607095397</v>
+      </c>
+      <c r="E48" t="n">
+        <v>9.881254187474878</v>
+      </c>
+      <c r="F48" t="n">
+        <v>11.32590327451176</v>
+      </c>
+      <c r="G48" t="n">
+        <v>6.783773360857422</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1.027726274509804</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2.521533498411457</v>
+      </c>
+      <c r="J48" t="n">
+        <v>12.13576829116391</v>
+      </c>
+      <c r="K48" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="L48" t="n">
+        <v>20</v>
+      </c>
+      <c r="M48" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N48" t="n">
+        <v>12.338115456234</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1.019101936758893</v>
+      </c>
+      <c r="B49" t="n">
+        <v>2.354326939937782</v>
+      </c>
+      <c r="C49" t="n">
+        <v>6.669423258814888</v>
+      </c>
+      <c r="D49" t="n">
+        <v>17.92508533579294</v>
+      </c>
+      <c r="E49" t="n">
+        <v>9.083635317415009</v>
+      </c>
+      <c r="F49" t="n">
+        <v>10.38799809219701</v>
+      </c>
+      <c r="G49" t="n">
+        <v>5.691169706631585</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1.019101936758893</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2.354326939937782</v>
+      </c>
+      <c r="J49" t="n">
+        <v>11.4428945449015</v>
+      </c>
+      <c r="K49" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="L49" t="n">
+        <v>20</v>
+      </c>
+      <c r="M49" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N49" t="n">
+        <v>11.1987047769156</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1.063193333333333</v>
+      </c>
+      <c r="B50" t="n">
+        <v>2.419124103956835</v>
+      </c>
+      <c r="C50" t="n">
+        <v>6.993347685403828</v>
+      </c>
+      <c r="D50" t="n">
+        <v>18.39136767962492</v>
+      </c>
+      <c r="E50" t="n">
+        <v>9.744784292649113</v>
+      </c>
+      <c r="F50" t="n">
+        <v>10.86030849554317</v>
+      </c>
+      <c r="G50" t="n">
+        <v>6.409394983356293</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1.063193333333333</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2.419124103956835</v>
+      </c>
+      <c r="J50" t="n">
+        <v>11.93912165087453</v>
+      </c>
+      <c r="K50" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="L50" t="n">
+        <v>20</v>
+      </c>
+      <c r="M50" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="N50" t="n">
+        <v>12.08945713583387</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1.068147965367965</v>
+      </c>
+      <c r="B51" t="n">
+        <v>2.409366279687543</v>
+      </c>
+      <c r="C51" t="n">
+        <v>5.819238905718447</v>
+      </c>
+      <c r="D51" t="n">
+        <v>16.10409045057769</v>
+      </c>
+      <c r="E51" t="n">
+        <v>8.013610205586298</v>
+      </c>
+      <c r="F51" t="n">
+        <v>9.030890914916775</v>
+      </c>
+      <c r="G51" t="n">
+        <v>5.38598930143589</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1.068147965367965</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2.409366279687543</v>
+      </c>
+      <c r="J51" t="n">
+        <v>10.25007137780309</v>
+      </c>
+      <c r="K51" t="n">
+        <v>18.51851851851852</v>
+      </c>
+      <c r="L51" t="n">
+        <v>18.18181818181818</v>
+      </c>
+      <c r="M51" t="n">
+        <v>18.18181818181818</v>
+      </c>
+      <c r="N51" t="n">
+        <v>10.31794652260352</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1.11699163372859</v>
+      </c>
+      <c r="B52" t="n">
+        <v>2.588635462736643</v>
+      </c>
+      <c r="C52" t="n">
+        <v>7.553333608683054</v>
+      </c>
+      <c r="D52" t="n">
+        <v>16.53679664490139</v>
+      </c>
+      <c r="E52" t="n">
+        <v>8.933191662590716</v>
+      </c>
+      <c r="F52" t="n">
+        <v>10.4291855984789</v>
+      </c>
+      <c r="G52" t="n">
+        <v>5.789749855747776</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1.11699163372859</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2.588635462736643</v>
+      </c>
+      <c r="J52" t="n">
+        <v>11.84891041739768</v>
+      </c>
+      <c r="K52" t="n">
+        <v>18.51851851851852</v>
+      </c>
+      <c r="L52" t="n">
+        <v>18.18181818181818</v>
+      </c>
+      <c r="M52" t="n">
+        <v>18.18181818181818</v>
+      </c>
+      <c r="N52" t="n">
+        <v>11.52163083731305</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1.079017942028985</v>
+      </c>
+      <c r="B53" t="n">
+        <v>2.767581515317356</v>
+      </c>
+      <c r="C53" t="n">
+        <v>7.359805005819742</v>
+      </c>
+      <c r="D53" t="n">
+        <v>16.18874043780003</v>
+      </c>
+      <c r="E53" t="n">
+        <v>9.717072593667558</v>
+      </c>
+      <c r="F53" t="n">
+        <v>11.07329005536028</v>
+      </c>
+      <c r="G53" t="n">
+        <v>6.655281128127018</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1.079017942028985</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2.767581515317356</v>
+      </c>
+      <c r="J53" t="n">
+        <v>12.2105766395475</v>
+      </c>
+      <c r="K53" t="n">
+        <v>18.51851851851852</v>
+      </c>
+      <c r="L53" t="n">
+        <v>18.18181818181818</v>
+      </c>
+      <c r="M53" t="n">
+        <v>18.18181818181818</v>
+      </c>
+      <c r="N53" t="n">
+        <v>12.56307654569364</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1.120129782913165</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2.638774011860739</v>
+      </c>
+      <c r="C54" t="n">
+        <v>6.39143368523483</v>
+      </c>
+      <c r="D54" t="n">
+        <v>16.52280003714241</v>
+      </c>
+      <c r="E54" t="n">
+        <v>8.655053139393956</v>
+      </c>
+      <c r="F54" t="n">
+        <v>9.88773276725499</v>
+      </c>
+      <c r="G54" t="n">
+        <v>5.851635172093884</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1.120129782913165</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2.638774011860739</v>
+      </c>
+      <c r="J54" t="n">
+        <v>11.44591261300829</v>
+      </c>
+      <c r="K54" t="n">
+        <v>18.51851851851852</v>
+      </c>
+      <c r="L54" t="n">
+        <v>18.18181818181818</v>
+      </c>
+      <c r="M54" t="n">
+        <v>18.18181818181818</v>
+      </c>
+      <c r="N54" t="n">
+        <v>11.29146063131274</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1.033080566801619</v>
+      </c>
+      <c r="B55" t="n">
+        <v>2.757975837034218</v>
+      </c>
+      <c r="C55" t="n">
+        <v>7.14762411461674</v>
+      </c>
+      <c r="D55" t="n">
+        <v>16.03903346977965</v>
+      </c>
+      <c r="E55" t="n">
+        <v>9.386900877580068</v>
+      </c>
+      <c r="F55" t="n">
+        <v>10.9030387456681</v>
+      </c>
+      <c r="G55" t="n">
+        <v>6.856127492133169</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1.033080566801619</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2.757975837034218</v>
+      </c>
+      <c r="J55" t="n">
+        <v>11.85703064730638</v>
+      </c>
+      <c r="K55" t="n">
+        <v>18.51851851851852</v>
+      </c>
+      <c r="L55" t="n">
+        <v>18.18181818181818</v>
+      </c>
+      <c r="M55" t="n">
+        <v>18.18181818181818</v>
+      </c>
+      <c r="N55" t="n">
+        <v>12.24542744157058</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>